--- a/Controle_test_novo.xlsx
+++ b/Controle_test_novo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>Entrada:</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Gasto Valor</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +462,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2544</v>
+        <v>2544.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2456</v>
+        <v>2455.6</v>
       </c>
       <c r="D2" t="n">
         <v>5000</v>
       </c>
-      <c r="E2" t="n">
-        <v>2544</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,7 +482,6 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -503,7 +494,6 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -516,7 +506,6 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,7 +518,6 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -542,7 +530,6 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -555,7 +542,6 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -568,20 +554,18 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mercado</t>
+          <t>Relogio</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.7</v>
+        <v>300</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -594,20 +578,18 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Relogio</t>
+          <t>Mercado</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>300</v>
+        <v>88.7</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -616,11 +598,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230.3</v>
+        <v>230.7</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
